--- a/branches/3before/CodeSystem-MMDIntervalCS.xlsx
+++ b/branches/3before/CodeSystem-MMDIntervalCS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-02T18:52:09+00:00</t>
+    <t>2023-07-02T19:46:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
